--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-25/Sample-25.xlsx
@@ -171,16 +171,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="0ugheaen" xfId="1"/>
-    <cellStyle name="0ugheaen_Alternate" xfId="2"/>
-    <cellStyle name="err0uujc" xfId="3"/>
-    <cellStyle name="err0uujc_Alternate" xfId="4"/>
-    <cellStyle name="lvmh4yjs" xfId="5"/>
-    <cellStyle name="lvmh4yjs_Alternate" xfId="6"/>
-    <cellStyle name="qj3she52" xfId="7"/>
-    <cellStyle name="qj3she52_Alternate" xfId="8"/>
-    <cellStyle name="5cgaaqsv" xfId="9"/>
-    <cellStyle name="5cgaaqsv_Alternate" xfId="10"/>
+    <cellStyle name="505hfsz2" xfId="1"/>
+    <cellStyle name="505hfsz2_Alternate" xfId="2"/>
+    <cellStyle name="n2dvck4j" xfId="3"/>
+    <cellStyle name="n2dvck4j_Alternate" xfId="4"/>
+    <cellStyle name="d42odqff" xfId="5"/>
+    <cellStyle name="d42odqff_Alternate" xfId="6"/>
+    <cellStyle name="4ibr1kyd" xfId="7"/>
+    <cellStyle name="4ibr1kyd_Alternate" xfId="8"/>
+    <cellStyle name="zxip22gd" xfId="9"/>
+    <cellStyle name="zxip22gd_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleAppAsync/Output/Sample-25/Sample-25.xlsx
@@ -171,16 +171,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="505hfsz2" xfId="1"/>
-    <cellStyle name="505hfsz2_Alternate" xfId="2"/>
-    <cellStyle name="n2dvck4j" xfId="3"/>
-    <cellStyle name="n2dvck4j_Alternate" xfId="4"/>
-    <cellStyle name="d42odqff" xfId="5"/>
-    <cellStyle name="d42odqff_Alternate" xfId="6"/>
-    <cellStyle name="4ibr1kyd" xfId="7"/>
-    <cellStyle name="4ibr1kyd_Alternate" xfId="8"/>
-    <cellStyle name="zxip22gd" xfId="9"/>
-    <cellStyle name="zxip22gd_Alternate" xfId="10"/>
+    <cellStyle name="j0rqfuit" xfId="1"/>
+    <cellStyle name="j0rqfuit_Alternate" xfId="2"/>
+    <cellStyle name="aews2cum" xfId="3"/>
+    <cellStyle name="aews2cum_Alternate" xfId="4"/>
+    <cellStyle name="t3r4qsfj" xfId="5"/>
+    <cellStyle name="t3r4qsfj_Alternate" xfId="6"/>
+    <cellStyle name="kp4byavn" xfId="7"/>
+    <cellStyle name="kp4byavn_Alternate" xfId="8"/>
+    <cellStyle name="m4bm44pa" xfId="9"/>
+    <cellStyle name="m4bm44pa_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
